--- a/src/test/resources/testData/TransactionDTO.xlsx
+++ b/src/test/resources/testData/TransactionDTO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Payment-Id</t>
   </si>
@@ -74,6 +74,36 @@
   </si>
   <si>
     <t>69080892-5207-4ac3-bca0-b86ae5a0973e</t>
+  </si>
+  <si>
+    <t>52bca7db-e94b-4913-849c-805294c4db92</t>
+  </si>
+  <si>
+    <t>8c6f6d2e-4860-4851-96aa-2b128c4a865a</t>
+  </si>
+  <si>
+    <t>8ddeafe8-6c1c-40af-af98-5c6dd1741a23</t>
+  </si>
+  <si>
+    <t>c4ab0513-7d40-4845-a3f2-e0a032817ea1</t>
+  </si>
+  <si>
+    <t>fea15a8e-033c-4379-be3a-ee5d42fbeeee</t>
+  </si>
+  <si>
+    <t>844e78bf-47a3-4a3f-b1af-fed0d3605148</t>
+  </si>
+  <si>
+    <t>0cb69aad-0873-436d-b805-c579f5adc12b</t>
+  </si>
+  <si>
+    <t>8f1cc576-006f-4447-9e50-4a3ee7b078b2</t>
+  </si>
+  <si>
+    <t>5f30ff05-47eb-48eb-bc29-db7b8234c94a</t>
+  </si>
+  <si>
+    <t>54fc12a6-7415-4031-8fc4-6f97a6708904</t>
   </si>
 </sst>
 </file>
@@ -438,7 +468,7 @@
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>

--- a/src/test/resources/testData/TransactionDTO.xlsx
+++ b/src/test/resources/testData/TransactionDTO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Payment-Id</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>54fc12a6-7415-4031-8fc4-6f97a6708904</t>
+  </si>
+  <si>
+    <t>4110f57e-6848-4923-9a1f-85175353d30c</t>
+  </si>
+  <si>
+    <t>90b9c12f-e429-4c5c-b897-e7741759da18</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>

--- a/src/test/resources/testData/TransactionDTO.xlsx
+++ b/src/test/resources/testData/TransactionDTO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Payment-Id</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>90b9c12f-e429-4c5c-b897-e7741759da18</t>
+  </si>
+  <si>
+    <t>6bf6638f-1b76-47b7-92bf-af375ec0cb86</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>

--- a/src/test/resources/testData/TransactionDTO.xlsx
+++ b/src/test/resources/testData/TransactionDTO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Payment-Id</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>6bf6638f-1b76-47b7-92bf-af375ec0cb86</t>
+  </si>
+  <si>
+    <t>a9e08ab5-2b6f-4e64-ba04-d74db269452c</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>

--- a/src/test/resources/testData/TransactionDTO.xlsx
+++ b/src/test/resources/testData/TransactionDTO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Payment-Id</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>a9e08ab5-2b6f-4e64-ba04-d74db269452c</t>
+  </si>
+  <si>
+    <t>363cfeb3-ed43-426d-9a07-2077fae5eb19</t>
+  </si>
+  <si>
+    <t>22df55d8-e12f-4c41-af9e-bfba78ae346a</t>
+  </si>
+  <si>
+    <t>c353af46-b43b-42da-95e8-679ec4e88652</t>
+  </si>
+  <si>
+    <t>8ae614d3-ed8f-4c45-9877-07886553e554</t>
   </si>
 </sst>
 </file>
@@ -480,7 +492,7 @@
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>

--- a/src/test/resources/testData/TransactionDTO.xlsx
+++ b/src/test/resources/testData/TransactionDTO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Payment-Id</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>8ae614d3-ed8f-4c45-9877-07886553e554</t>
+  </si>
+  <si>
+    <t>53e29c69-0bb5-44f5-aef9-2fe71294233d</t>
+  </si>
+  <si>
+    <t>7e3effa6-66b2-4ccb-bcf2-9416a03ec1eb</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>

--- a/src/test/resources/testData/TransactionDTO.xlsx
+++ b/src/test/resources/testData/TransactionDTO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Payment-Id</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>7e3effa6-66b2-4ccb-bcf2-9416a03ec1eb</t>
+  </si>
+  <si>
+    <t>6f56d46a-05a3-40d0-bda8-92ed981ad1ec</t>
+  </si>
+  <si>
+    <t>9607bf94-9cdc-4d95-bf62-1de2ea03fa33</t>
+  </si>
+  <si>
+    <t>2515f349-a31c-409b-8587-3652e74bad8a</t>
+  </si>
+  <si>
+    <t>03f5296a-0cf2-4777-a31e-d3d0e0b1e865</t>
+  </si>
+  <si>
+    <t>eed53292-07c5-46ac-b04b-1449c37b5120</t>
   </si>
 </sst>
 </file>
@@ -498,7 +513,7 @@
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>

--- a/src/test/resources/testData/TransactionDTO.xlsx
+++ b/src/test/resources/testData/TransactionDTO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Payment-Id</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>eed53292-07c5-46ac-b04b-1449c37b5120</t>
+  </si>
+  <si>
+    <t>f8aba7bc-7630-402d-889e-a96a1bbb3cd7</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
